--- a/similarities/split_global/harmonic_similarity_timestamps_240.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_240.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,690 +484,742 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
+          <t>schubert-winterreise_8</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_66</t>
+          <t>schubert-winterreise_166</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C'], ['F/A', 'C:7/G', 'F/A']]</t>
+          <t>['F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab'], ['Db', 'Ab:7', 'Db']]</t>
+          <t>['A:7', 'A:(3,5,b7,b9)/G', 'D:min/F']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:04:43.300000', '0:04:50.060000'), ('0:05:02.760000', '0:05:04.820000')]</t>
+          <t>('0:00:04.940000', '0:00:23.240000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:22.770000', '0:00:29.490000'), ('0:00:47.340000', '0:00:50.710000')]</t>
+          <t>('0:02:17.340000', '0:02:20.480000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=283.3', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=302.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-8#t=4.94</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=22.77', 'https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=47.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=137.34</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
+          <t>schubert-winterreise_21</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_18</t>
+          <t>schubert-winterreise_168</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['D:maj', 'A:maj', 'D:maj']]</t>
+          <t>['F#:maj', 'C#:7/F', 'F#:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>['C#:maj/F', 'G#:7', 'C#:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:19.727000', '0:00:41.282000')]</t>
+          <t>('0:00:38.580000', '0:00:43.300000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:00.780000', '0:00:23.840000')]</t>
+          <t>('0:00:35.220000', '0:00:40')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=19.727']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-21#t=38.58</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=0.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=35.22</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_252</t>
+          <t>isophonics_79</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
+          <t>schubert-winterreise_167</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:min', 'F:min', 'C:min']]</t>
+          <t>['E', 'B', 'E']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
+          <t>['C:maj', 'G:maj', 'C:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:01:30.128000', '0:01:39.300000')]</t>
+          <t>('0:00:04.103323', '0:00:13.890534')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:08.980000', '0:00:24.840000')]</t>
+          <t>('0:00:09.540000', '0:00:11.420000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-252#t=90.128']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-79#t=4.103323</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-22#t=8.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=9.54</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_78</t>
+          <t>isophonics_4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_27</t>
+          <t>schubert-winterreise_79</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb:7', 'Bb'], ['C:min7', 'F:7', 'Bb']]</t>
+          <t>['G:7', 'C:min', 'F:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:7', 'D'], ['E:min7', 'A:7', 'D']]</t>
+          <t>['E:7', 'A:min', 'D:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:28.070000', '0:00:37.660000'), ('0:00:40.640000', '0:00:48.100000')]</t>
+          <t>('0:02:36.152000', '0:02:39.022000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:03.500000', '0:00:08.780000'), ('0:00:08.780000', '0:00:16.050000')]</t>
+          <t>('0:00:10.240000', '0:00:22.400000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-78#t=28.07', 'https://soundcloud.com/jacopo-de-berardinis/jaah-78#t=40.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-4#t=156.152</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-27#t=3.5', 'https://soundcloud.com/jacopo-de-berardinis/jaah-27#t=8.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-79#t=10.24</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_70</t>
+          <t>jaah_41</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
+          <t>jaah_77</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['Db:maj6', 'Eb:min7', 'Db'], ['Eb:min7', 'Db', 'Eb:min7']]</t>
+          <t>['C:7', 'F', 'C:7', 'F']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['D:maj6', 'G:maj6/3', 'D'], ['G:maj6/3', 'D', 'G:maj6/3']]</t>
+          <t>['G:7', 'C', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:09.420000', '0:00:10.280000'), ('0:00:11.140000', '0:00:13.420000')]</t>
+          <t>('0:00:10.130000', '0:00:14.450000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:00.440395', '0:00:14.228594'), ('0:00:07.483197', '0:00:17.641927')]</t>
+          <t>('0:00:18.870000', '0:00:25.690000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-70#t=9.42', 'https://soundcloud.com/jacopo-de-berardinis/jaah-70#t=11.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-41#t=10.13</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-255#t=0.440395', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-255#t=7.483197']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-77#t=18.87</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_10</t>
+          <t>schubert-winterreise_149</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_217</t>
+          <t>isophonics_258</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj']]</t>
+          <t>['F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'G', 'D', 'G', 'D', 'G']]</t>
+          <t>['C:maj', 'G:maj', 'C:maj', 'G:maj/5']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:10.540000', '0:00:15.940000')]</t>
+          <t>('0:00:30.020000', '0:00:32.840000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:21.740249', '0:00:42.394399')]</t>
+          <t>('0:00:31.138000', '0:00:34.969000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=10.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-149#t=30.02</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-217#t=21.740249']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-258#t=31.138</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_44</t>
+          <t>schubert-winterreise_63</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_259</t>
+          <t>schubert-winterreise_211</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['E:min', 'A:min', 'C'], ['E:min', 'A:min', 'D:min']]</t>
+          <t>['D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['C#:min', 'F#:min', 'A'], ['C#:min', 'F#:min', 'B:min']]</t>
+          <t>['F:maj', 'C:7/E', 'F:maj', 'C:7/E', 'F:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:42.696258', '0:00:48.303877'), ('0:00:04.197573', '0:00:08.133356')]</t>
+          <t>('0:00:43.320000', '0:00:47.420000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:43.283000', '0:00:48.101000'), ('0:00:37.859000', '0:00:43.283000')]</t>
+          <t>('0:00:34.640000', '0:00:41.660000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-44#t=42.696258', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-44#t=4.197573']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=43.32</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-259#t=43.283', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-259#t=37.859']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=34.64</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
+          <t>schubert-winterreise_95</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_144</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj/G'], ['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj/A#'], ['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:36.940000', '0:01:43.280000'), ('0:00:39.840000', '0:00:47.280000')]</t>
+          <t>('0:00:11.240000', '0:00:17.760000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:26.260000', '0:01:32.700000'), ('0:01:58.180000', '0:02:03.040000')]</t>
+          <t>('0:00:01.880000', '0:00:06.560000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-106#t=96.94', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-106#t=39.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=11.24</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-144#t=86.26', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-144#t=118.18']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=1.88</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_78</t>
+          <t>schubert-winterreise_141</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_67</t>
+          <t>schubert-winterreise_89</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'Eb:7', 'Bb']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'Bb:7', 'F']]</t>
+          <t>['G:maj/B', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:13.900000', '0:00:25.840000')]</t>
+          <t>('0:01:12.640000', '0:01:23.380000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:09.180000', '0:00:15.540000')]</t>
+          <t>('0:00:18.800000', '0:00:21.340000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-78#t=13.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=72.64</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-67#t=9.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=18.8</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
+          <t>isophonics_123</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_60</t>
+          <t>jaah_29</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>['E', 'A', 'E', 'A']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min'], ['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['Ab', 'Db', 'Ab', 'Db']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:13.740000', '0:00:22.560000'), ('0:01:24', '0:01:30.840000')]</t>
+          <t>('0:00:08.413696', '0:00:12.303038')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:06.300000', '0:00:14.360000'), ('0:00:17.040000', '0:00:24.520000')]</t>
+          <t>('0:01:56.690000', '0:02:03.070000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=13.74', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=84.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-123#t=8.413696</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-60#t=6.3', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-60#t=17.04']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=116.69</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_158</t>
+          <t>schubert-winterreise_131</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
+          <t>isophonics_156</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:01:15.520000', '0:01:19.700000')]</t>
+          <t>('0:01:01.320000', '0:01:03.700000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:11.384000', '0:00:18.318000')]</t>
+          <t>('0:00:11.070127', '0:00:13.723731')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=75.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=61.32</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=11.384']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-156#t=11.070127</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_116</t>
+          <t>schubert-winterreise_55</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
+          <t>jaah_53</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['G:maj/D', 'A:min7/C', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7', 'A:min']]</t>
+          <t>['G', 'A:min7', 'D:7', 'G']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:19.980000', '0:00:27.180000')]</t>
+          <t>('0:01:05.420000', '0:01:11.700000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:18', '0:00:26.460000')]</t>
+          <t>('0:00:42.940000', '0:00:50.310000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-116#t=19.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=65.42</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-138#t=18.0']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-53#t=42.94</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_64</t>
+          <t>schubert-winterreise_173</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_287</t>
+          <t>schubert-winterreise_80</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D'], ['A', 'D', 'A']]</t>
+          <t>['G:min', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D'], ['A/3', 'D', 'A']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:02:06.506000', '0:02:17.555000'), ('0:01:14.879000', '0:01:25.949000')]</t>
+          <t>('0:00:02.580000', '0:00:07.080000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:21.722199', '0:00:26.760929'), ('0:01:05.810340', '0:01:11.679931')]</t>
+          <t>('0:02:10.840000', '0:02:15.980000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-64#t=126.506', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-64#t=74.879']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=2.58</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-287#t=21.722199', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-287#t=65.81034']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-80#t=130.84</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>isophonics_79</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_14</t>
+          <t>schubert-winterreise_163</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:16.020000', '0:00:22.500000')]</t>
+          <t>('0:00:07.284457', '0:00:20.438561')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:01:23.340000', '0:01:27.640000')]</t>
+          <t>('0:01:51.920000', '0:01:55.360000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=16.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-79#t=7.284457</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=83.34']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=111.92</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_67</t>
+          <t>schubert-winterreise_132</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_167</t>
+          <t>schubert-winterreise_121</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'C:7']]</t>
+          <t>['F:min/C', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj', 'G:7']]</t>
+          <t>['C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:24.120000', '0:00:27')]</t>
+          <t>('0:00:43.680000', '0:00:45.800000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:07.740000', '0:00:09.540000')]</t>
+          <t>('0:00:26.960000', '0:00:33.500000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-67#t=24.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=43.68</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=7.74']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=26.96</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
